--- a/dane.xlsx
+++ b/dane.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="71">
   <si>
     <t>algorytm</t>
   </si>
@@ -206,13 +206,34 @@
   </si>
   <si>
     <t>crossvalidation 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>najlepsze algortymy</t>
+  </si>
+  <si>
+    <t>najlepsze algortymy  &gt; 0.6</t>
+  </si>
+  <si>
+    <t>zestawienie najlepsze top 7 sposrod 3 prob</t>
+  </si>
+  <si>
+    <t>Mixed data test only for the best algo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modyfikcaje pierwszego zbioru </t>
+  </si>
+  <si>
+    <t>bez middlebb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,8 +249,24 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -239,6 +276,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -266,16 +313,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -578,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M159"/>
+  <dimension ref="A1:O203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D124" sqref="D124"/>
+    <sheetView tabSelected="1" topLeftCell="A178" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J188" sqref="J188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,7 +648,7 @@
     <col min="9" max="9" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -624,7 +677,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -641,7 +694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -667,7 +720,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -690,7 +743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -713,7 +766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -736,7 +789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -747,7 +800,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -770,7 +823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -793,7 +846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -816,7 +869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -839,7 +892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
@@ -850,7 +903,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -873,7 +926,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -895,8 +948,11 @@
       <c r="G14">
         <v>3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -918,8 +974,29 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="K15">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="L15">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="M15">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="N15">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="O15">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
@@ -929,8 +1006,29 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16">
+        <v>0.626</v>
+      </c>
+      <c r="K16">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="L16">
+        <v>0.627</v>
+      </c>
+      <c r="M16">
+        <v>0.63</v>
+      </c>
+      <c r="N16">
+        <v>0.2</v>
+      </c>
+      <c r="O16">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -952,8 +1050,29 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I17" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17">
+        <v>0.624</v>
+      </c>
+      <c r="K17">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="L17">
+        <v>0.628</v>
+      </c>
+      <c r="M17">
+        <v>0.629</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -975,8 +1094,29 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I18" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="K18">
+        <v>0.755</v>
+      </c>
+      <c r="L18">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="M18">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="N18">
+        <v>2.7E-2</v>
+      </c>
+      <c r="O18">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -998,8 +1138,29 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J19">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="K19">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="L19">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="M19">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1021,8 +1182,29 @@
       <c r="G20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I20" t="s">
+        <v>55</v>
+      </c>
+      <c r="J20">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="K20">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="L20">
+        <v>0.72</v>
+      </c>
+      <c r="M20">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="N20">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="O20">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -1038,8 +1220,29 @@
       <c r="G21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I21" t="s">
+        <v>56</v>
+      </c>
+      <c r="J21">
+        <v>0.622</v>
+      </c>
+      <c r="K21">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="L21">
+        <v>0.621</v>
+      </c>
+      <c r="M21">
+        <v>0.621</v>
+      </c>
+      <c r="N21">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="O21">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1062,7 +1265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -1085,7 +1288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -1108,7 +1311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -1131,7 +1334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1153,8 +1356,11 @@
       <c r="G26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -1177,7 +1383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -1200,7 +1406,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -1223,7 +1429,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -1246,7 +1452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -1269,7 +1475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -1891,7 +2097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>19</v>
       </c>
@@ -1902,7 +2108,7 @@
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>20</v>
       </c>
@@ -1925,7 +2131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>21</v>
       </c>
@@ -1948,7 +2154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>22</v>
       </c>
@@ -1970,8 +2176,11 @@
       <c r="G68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I68" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>23</v>
       </c>
@@ -1981,8 +2190,29 @@
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I69" t="s">
+        <v>20</v>
+      </c>
+      <c r="J69">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="K69">
+        <v>0.622</v>
+      </c>
+      <c r="L69">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="M69">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>24</v>
       </c>
@@ -2004,8 +2234,29 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I70" t="s">
+        <v>21</v>
+      </c>
+      <c r="J70">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="K70">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="L70">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="M70">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>25</v>
       </c>
@@ -2027,8 +2278,29 @@
       <c r="G71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I71" t="s">
+        <v>26</v>
+      </c>
+      <c r="J71">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="K71">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="L71">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="M71">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>26</v>
       </c>
@@ -2050,8 +2322,29 @@
       <c r="G72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I72" t="s">
+        <v>27</v>
+      </c>
+      <c r="J72">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="K72">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="L72">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="M72">
+        <v>0.49</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>27</v>
       </c>
@@ -2073,8 +2366,29 @@
       <c r="G73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I73" t="s">
+        <v>36</v>
+      </c>
+      <c r="J73">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="K73">
+        <v>0.62</v>
+      </c>
+      <c r="L73">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="M73">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>28</v>
       </c>
@@ -2096,8 +2410,29 @@
       <c r="G74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I74" t="s">
+        <v>37</v>
+      </c>
+      <c r="J74">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="K74">
+        <v>0.62</v>
+      </c>
+      <c r="L74">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="M74">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>29</v>
       </c>
@@ -2119,8 +2454,29 @@
       <c r="G75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I75" t="s">
+        <v>38</v>
+      </c>
+      <c r="J75">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="K75">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="L75">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="M75">
+        <v>0.53</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>30</v>
       </c>
@@ -2142,8 +2498,29 @@
       <c r="G76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I76" t="s">
+        <v>55</v>
+      </c>
+      <c r="J76">
+        <v>0.53</v>
+      </c>
+      <c r="K76">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="L76">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="M76">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>31</v>
       </c>
@@ -2165,8 +2542,29 @@
       <c r="G77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I77" t="s">
+        <v>56</v>
+      </c>
+      <c r="J77">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="K77">
+        <v>0.621</v>
+      </c>
+      <c r="L77">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="M77">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>32</v>
       </c>
@@ -2188,8 +2586,29 @@
       <c r="G78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I78" t="s">
+        <v>57</v>
+      </c>
+      <c r="J78">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="K78">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="L78">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="M78">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>33</v>
       </c>
@@ -2212,7 +2631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>35</v>
       </c>
@@ -2734,7 +3153,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>14</v>
       </c>
@@ -2745,7 +3164,7 @@
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>1</v>
       </c>
@@ -2761,8 +3180,14 @@
       <c r="E114">
         <v>0.65500000000000003</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>11</v>
       </c>
@@ -2778,8 +3203,14 @@
       <c r="E115">
         <v>0.51600000000000001</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>34</v>
       </c>
@@ -2795,8 +3226,14 @@
       <c r="E116">
         <v>0.51600000000000001</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>15</v>
       </c>
@@ -2807,7 +3244,7 @@
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>13</v>
       </c>
@@ -2823,8 +3260,14 @@
       <c r="E118">
         <v>0.52300000000000002</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>16</v>
       </c>
@@ -2840,8 +3283,14 @@
       <c r="E119">
         <v>0.79300000000000004</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>17</v>
       </c>
@@ -2857,8 +3306,17 @@
       <c r="E120">
         <v>0.52400000000000002</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="I120" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>18</v>
       </c>
@@ -2874,8 +3332,29 @@
       <c r="E121">
         <v>0.52600000000000002</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="I121" t="s">
+        <v>20</v>
+      </c>
+      <c r="J121">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="K121">
+        <v>0.61</v>
+      </c>
+      <c r="L121">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="M121">
+        <v>0.55700000000000005</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>19</v>
       </c>
@@ -2885,8 +3364,23 @@
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I122" t="s">
+        <v>21</v>
+      </c>
+      <c r="J122">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="K122">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="L122">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="M122">
+        <v>0.52500000000000002</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>20</v>
       </c>
@@ -2902,8 +3396,29 @@
       <c r="E123">
         <v>0.55700000000000005</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="I123" t="s">
+        <v>26</v>
+      </c>
+      <c r="J123">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="K123">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="L123">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="M123">
+        <v>0.59299999999999997</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>21</v>
       </c>
@@ -2919,8 +3434,29 @@
       <c r="E124">
         <v>0.52500000000000002</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="I124" t="s">
+        <v>36</v>
+      </c>
+      <c r="J124">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="K124">
+        <v>0.61</v>
+      </c>
+      <c r="L124">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="M124">
+        <v>0.56499999999999995</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>22</v>
       </c>
@@ -2936,8 +3472,35 @@
       <c r="E125">
         <v>0.503</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="I125" t="s">
+        <v>37</v>
+      </c>
+      <c r="J125">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="K125">
+        <v>0.61</v>
+      </c>
+      <c r="L125">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="M125">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="N125">
+        <v>0</v>
+      </c>
+      <c r="O125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>23</v>
       </c>
@@ -2947,46 +3510,253 @@
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I126" t="s">
+        <v>55</v>
+      </c>
+      <c r="J126">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="K126">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="L126">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="M126">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="N126">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="O126">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B127">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="C127">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="D127">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="E127">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="I127" t="s">
+        <v>56</v>
+      </c>
+      <c r="J127">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="K127">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="L127">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="M127">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N127">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="O127">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>25</v>
+      </c>
+      <c r="B128">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="C128">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="D128">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="E128">
+        <v>0.435</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="I128" t="s">
+        <v>57</v>
+      </c>
+      <c r="J128">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="K128">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="L128">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="M128">
+        <v>0.54</v>
+      </c>
+      <c r="N128">
+        <v>0</v>
+      </c>
+      <c r="O128">
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>26</v>
       </c>
+      <c r="B129">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="C129">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="D129">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="E129">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>27</v>
       </c>
+      <c r="B130">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="C130">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="D130">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="E130">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>28</v>
       </c>
+      <c r="B131">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>29</v>
       </c>
+      <c r="B132">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="C132">
+        <v>0.628</v>
+      </c>
+      <c r="D132">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="E132">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>30</v>
       </c>
+      <c r="B133">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="C133">
+        <v>0.52</v>
+      </c>
+      <c r="D133">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="E133">
+        <v>0.53</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>31</v>
       </c>
+      <c r="B134">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="C134">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="D134">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="E134">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
@@ -3004,6 +3774,12 @@
       <c r="E135">
         <v>0.52300000000000002</v>
       </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
@@ -3021,40 +3797,172 @@
       <c r="E136">
         <v>0.51600000000000001</v>
       </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>35</v>
       </c>
+      <c r="B137">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>36</v>
       </c>
+      <c r="B138">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="C138">
+        <v>0.61</v>
+      </c>
+      <c r="D138">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="E138">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>37</v>
       </c>
+      <c r="B139">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="C139">
+        <v>0.61</v>
+      </c>
+      <c r="D139">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="E139">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>38</v>
       </c>
+      <c r="B140">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>39</v>
       </c>
+      <c r="B141">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>40</v>
       </c>
+      <c r="B142">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>41</v>
+      </c>
+      <c r="B143">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -3072,6 +3980,24 @@
       <c r="A145" t="s">
         <v>43</v>
       </c>
+      <c r="B145">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="C145">
+        <v>1</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
@@ -3088,25 +4014,115 @@
       <c r="A147" t="s">
         <v>45</v>
       </c>
+      <c r="B147">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="C147">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="D147">
+        <v>0.51</v>
+      </c>
+      <c r="E147">
+        <v>0.51</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>46</v>
       </c>
+      <c r="B148">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="C148">
+        <v>0.628</v>
+      </c>
+      <c r="D148">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="E148">
+        <v>0.42</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>47</v>
       </c>
+      <c r="B149">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="C149">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="D149">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="E149">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>48</v>
       </c>
+      <c r="B150">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="C150">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="D150">
+        <v>0.51</v>
+      </c>
+      <c r="E150">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>49</v>
+      </c>
+      <c r="B151">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="C151">
+        <v>1</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -3124,35 +4140,814 @@
       <c r="A153" t="s">
         <v>51</v>
       </c>
+      <c r="B153">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="C153">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="D153">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="E153">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>52</v>
       </c>
+      <c r="B154">
+        <v>0.504</v>
+      </c>
+      <c r="C154">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="D154">
+        <v>0.5</v>
+      </c>
+      <c r="E154">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="F154">
+        <v>1E-3</v>
+      </c>
+      <c r="G154">
+        <v>2.8000000000000001E-2</v>
+      </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>53</v>
       </c>
+      <c r="B155">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="C155">
+        <v>0.621</v>
+      </c>
+      <c r="D155">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="E155">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>54</v>
       </c>
+      <c r="B156">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="C156">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="D156">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="E156">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>55</v>
       </c>
+      <c r="B157">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="C157">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="D157">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="E157">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="F157">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="G157">
+        <v>2.4E-2</v>
+      </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>56</v>
       </c>
+      <c r="B158">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C158">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="D158">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="E158">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F158">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="G158">
+        <v>1.7999999999999999E-2</v>
+      </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>57</v>
+      </c>
+      <c r="B159">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="C159">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="D159">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="E159">
+        <v>0.54</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+      <c r="G159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>20</v>
+      </c>
+      <c r="B168">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="C168">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="D168">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="E168">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="F168">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="G168">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>21</v>
+      </c>
+      <c r="B169">
+        <v>0.626</v>
+      </c>
+      <c r="C169">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="D169">
+        <v>0.627</v>
+      </c>
+      <c r="E169">
+        <v>0.63</v>
+      </c>
+      <c r="F169">
+        <v>0.2</v>
+      </c>
+      <c r="G169">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>26</v>
+      </c>
+      <c r="B170">
+        <v>0.624</v>
+      </c>
+      <c r="C170">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="D170">
+        <v>0.628</v>
+      </c>
+      <c r="E170">
+        <v>0.629</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+      <c r="G170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B171" s="3">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="C171" s="3">
+        <v>0.755</v>
+      </c>
+      <c r="D171" s="3">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="E171" s="3">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="F171" s="3">
+        <v>2.7E-2</v>
+      </c>
+      <c r="G171" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B172" s="3">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="C172" s="3">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="D172" s="3">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="E172" s="3">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="F172" s="3">
+        <v>0</v>
+      </c>
+      <c r="G172" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B173" s="3">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="C173" s="3">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="D173" s="3">
+        <v>0.72</v>
+      </c>
+      <c r="E173" s="3">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="F173" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="G173" s="3">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>56</v>
+      </c>
+      <c r="B174">
+        <v>0.622</v>
+      </c>
+      <c r="C174">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="D174">
+        <v>0.621</v>
+      </c>
+      <c r="E174">
+        <v>0.621</v>
+      </c>
+      <c r="F174">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G174">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" s="2"/>
+      <c r="B175" s="2"/>
+      <c r="C175" s="2"/>
+      <c r="D175" s="2"/>
+      <c r="E175" s="2"/>
+      <c r="F175" s="2"/>
+      <c r="G175" s="2"/>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>20</v>
+      </c>
+      <c r="B176">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="C176">
+        <v>0.622</v>
+      </c>
+      <c r="D176">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="E176">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+      <c r="G176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B177" s="3">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="C177" s="3">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="D177" s="3">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="E177" s="3">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="F177" s="3">
+        <v>0</v>
+      </c>
+      <c r="G177" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>36</v>
+      </c>
+      <c r="B178">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="C178">
+        <v>0.62</v>
+      </c>
+      <c r="D178">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="E178">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
+      <c r="G178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>37</v>
+      </c>
+      <c r="B179">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="C179">
+        <v>0.62</v>
+      </c>
+      <c r="D179">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="E179">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="F179">
+        <v>0</v>
+      </c>
+      <c r="G179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B180" s="3">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="C180" s="3">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="D180" s="3">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="E180" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="F180" s="3">
+        <v>0</v>
+      </c>
+      <c r="G180" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>55</v>
+      </c>
+      <c r="B181">
+        <v>0.53</v>
+      </c>
+      <c r="C181">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="D181">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="E181">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>56</v>
+      </c>
+      <c r="B182">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="C182">
+        <v>0.621</v>
+      </c>
+      <c r="D182">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="E182">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+      <c r="G182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B183" s="3">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="C183" s="3">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="D183" s="3">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="E183" s="3">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="F183" s="3">
+        <v>0</v>
+      </c>
+      <c r="G183" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" s="2"/>
+      <c r="B184" s="2"/>
+      <c r="C184" s="2"/>
+      <c r="D184" s="2"/>
+      <c r="E184" s="2"/>
+      <c r="F184" s="2"/>
+      <c r="G184" s="2"/>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>21</v>
+      </c>
+      <c r="B185">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="C185">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="D185">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="E185">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+      <c r="G185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B186" s="3">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="C186" s="3">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="D186" s="3">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="E186" s="3">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="F186" s="3">
+        <v>0</v>
+      </c>
+      <c r="G186" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B187" s="3">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="C187" s="3">
+        <v>0.61</v>
+      </c>
+      <c r="D187" s="3">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="E187" s="3">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="F187" s="3">
+        <v>0</v>
+      </c>
+      <c r="G187" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>37</v>
+      </c>
+      <c r="B188">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="C188">
+        <v>0.61</v>
+      </c>
+      <c r="D188">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="E188">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="F188">
+        <v>0</v>
+      </c>
+      <c r="G188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B189" s="3">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="C189" s="3">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="D189" s="3">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="E189" s="3">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="F189" s="3">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="G189" s="3">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B190" s="3">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C190" s="3">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="D190" s="3">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="E190" s="3">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F190" s="3">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="G190" s="3">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>57</v>
+      </c>
+      <c r="B191">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="C191">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="D191">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="E191">
+        <v>0.54</v>
+      </c>
+      <c r="F191">
+        <v>0</v>
+      </c>
+      <c r="G191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>55</v>
+      </c>
+      <c r="B196">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="C196">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="D196">
+        <v>0.72</v>
+      </c>
+      <c r="E196">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="F196">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="G196">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>38</v>
+      </c>
+      <c r="B197">
+        <v>0.63</v>
+      </c>
+      <c r="C197">
+        <v>0.65</v>
+      </c>
+      <c r="D197">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="E197">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="F197">
+        <v>0</v>
+      </c>
+      <c r="G197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>36</v>
+      </c>
+      <c r="B198">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="C198">
+        <v>0.754</v>
+      </c>
+      <c r="D198">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="E198">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="F198">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="G198">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>38</v>
+      </c>
+      <c r="B202">
+        <v>0.624</v>
+      </c>
+      <c r="C202">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="D202">
+        <v>0.626</v>
+      </c>
+      <c r="E202">
+        <v>0.63200000000000001</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>36</v>
+      </c>
+      <c r="B203">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="C203">
+        <v>0.74</v>
+      </c>
+      <c r="D203">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="E203">
+        <v>0.627</v>
+      </c>
+      <c r="F203">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="G203">
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
   </sheetData>

--- a/dane.xlsx
+++ b/dane.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="79">
   <si>
     <t>algorytm</t>
   </si>
@@ -227,6 +227,30 @@
   </si>
   <si>
     <t>bez middlebb</t>
+  </si>
+  <si>
+    <t>bez closeValue</t>
+  </si>
+  <si>
+    <t>bez rsi</t>
+  </si>
+  <si>
+    <t>bez cci</t>
+  </si>
+  <si>
+    <t>bez upperbb</t>
+  </si>
+  <si>
+    <t>bez lowerbb</t>
+  </si>
+  <si>
+    <t>bez macd</t>
+  </si>
+  <si>
+    <t>z sygnalem rsi</t>
+  </si>
+  <si>
+    <t>z sygnalem cci</t>
   </si>
 </sst>
 </file>
@@ -631,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O203"/>
+  <dimension ref="A1:O246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J188" sqref="J188"/>
+    <sheetView tabSelected="1" topLeftCell="A187" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B209" sqref="B209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4910,6 +4934,23 @@
         <v>70</v>
       </c>
     </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>55</v>
+      </c>
+      <c r="B201">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="C201">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="D201">
+        <v>0.7</v>
+      </c>
+      <c r="E201">
+        <v>0.70099999999999996</v>
+      </c>
+    </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>38</v>
@@ -4948,6 +4989,202 @@
       </c>
       <c r="G203">
         <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>55</v>
+      </c>
+      <c r="B206">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="C206">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="D206">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="E206">
+        <v>0.70799999999999996</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>38</v>
+      </c>
+      <c r="B207">
+        <v>0.627</v>
+      </c>
+      <c r="C207">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="D207">
+        <v>0.629</v>
+      </c>
+      <c r="E207">
+        <v>0.63200000000000001</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>36</v>
+      </c>
+      <c r="B208">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="C208">
+        <v>0.746</v>
+      </c>
+      <c r="D208">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="E208">
+        <v>0.64100000000000001</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/dane.xlsx
+++ b/dane.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="82">
   <si>
     <t>algorytm</t>
   </si>
@@ -232,15 +232,6 @@
     <t>bez closeValue</t>
   </si>
   <si>
-    <t>bez rsi</t>
-  </si>
-  <si>
-    <t>bez cci</t>
-  </si>
-  <si>
-    <t>bez upperbb</t>
-  </si>
-  <si>
     <t>bez lowerbb</t>
   </si>
   <si>
@@ -251,12 +242,30 @@
   </si>
   <si>
     <t>z sygnalem cci</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mixed data bez rsi</t>
+  </si>
+  <si>
+    <t>mixed data bez cci</t>
+  </si>
+  <si>
+    <t>mixed data bez upperbb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bez rsi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bez cci</t>
+  </si>
+  <si>
+    <t>a bez upperbb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -350,10 +359,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Good" xfId="2" builtinId="26"/>
-    <cellStyle name="Input" xfId="1" builtinId="20"/>
-    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Dane wejściowe" xfId="1" builtinId="20"/>
+    <cellStyle name="Dobry" xfId="2" builtinId="26"/>
+    <cellStyle name="Neutralny" xfId="3" builtinId="28"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -369,9 +378,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -409,7 +418,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -481,7 +490,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -655,24 +664,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O246"/>
+  <dimension ref="A1:O262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B209" sqref="B209"/>
+    <sheetView tabSelected="1" topLeftCell="A213" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E232" sqref="E232"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" customWidth="1"/>
+    <col min="6" max="7" width="14.44140625" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -701,7 +710,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -718,7 +727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -744,7 +753,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -767,7 +776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -790,7 +799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -813,7 +822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -824,7 +833,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -847,7 +856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -870,7 +879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -893,7 +902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -916,7 +925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
@@ -927,7 +936,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -950,7 +959,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -976,7 +985,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1020,7 +1029,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
@@ -1052,7 +1061,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1096,7 +1105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1140,7 +1149,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -1184,7 +1193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1228,7 +1237,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -1266,7 +1275,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1289,7 +1298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -1312,7 +1321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -1335,7 +1344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -1358,7 +1367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1384,7 +1393,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -1407,7 +1416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -1430,7 +1439,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -1453,7 +1462,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -1476,7 +1485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -1499,7 +1508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -1522,7 +1531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -1545,7 +1554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>42</v>
       </c>
@@ -1556,7 +1565,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -1579,7 +1588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>44</v>
       </c>
@@ -1590,7 +1599,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -1613,7 +1622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>46</v>
       </c>
@@ -1636,7 +1645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>47</v>
       </c>
@@ -1659,7 +1668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>48</v>
       </c>
@@ -1682,7 +1691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>49</v>
       </c>
@@ -1705,7 +1714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>50</v>
       </c>
@@ -1716,7 +1725,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>51</v>
       </c>
@@ -1739,7 +1748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>52</v>
       </c>
@@ -1762,7 +1771,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>53</v>
       </c>
@@ -1785,7 +1794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>54</v>
       </c>
@@ -1808,7 +1817,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>55</v>
       </c>
@@ -1831,7 +1840,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>56</v>
       </c>
@@ -1854,7 +1863,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>57</v>
       </c>
@@ -1877,7 +1886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -1906,7 +1915,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>14</v>
       </c>
@@ -1923,7 +1932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>1</v>
       </c>
@@ -1949,7 +1958,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>11</v>
       </c>
@@ -1972,7 +1981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>12</v>
       </c>
@@ -1995,7 +2004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>34</v>
       </c>
@@ -2018,7 +2027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>15</v>
       </c>
@@ -2029,7 +2038,7 @@
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>13</v>
       </c>
@@ -2052,7 +2061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>16</v>
       </c>
@@ -2075,7 +2084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>17</v>
       </c>
@@ -2098,7 +2107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>18</v>
       </c>
@@ -2121,7 +2130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>19</v>
       </c>
@@ -2132,7 +2141,7 @@
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>20</v>
       </c>
@@ -2155,7 +2164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>21</v>
       </c>
@@ -2178,7 +2187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>22</v>
       </c>
@@ -2204,7 +2213,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>23</v>
       </c>
@@ -2236,7 +2245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>24</v>
       </c>
@@ -2280,7 +2289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>25</v>
       </c>
@@ -2324,7 +2333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>26</v>
       </c>
@@ -2368,7 +2377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>27</v>
       </c>
@@ -2412,7 +2421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>28</v>
       </c>
@@ -2456,7 +2465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>29</v>
       </c>
@@ -2500,7 +2509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>30</v>
       </c>
@@ -2544,7 +2553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>31</v>
       </c>
@@ -2588,7 +2597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>32</v>
       </c>
@@ -2632,7 +2641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>33</v>
       </c>
@@ -2655,7 +2664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>35</v>
       </c>
@@ -2678,7 +2687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>36</v>
       </c>
@@ -2701,7 +2710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>37</v>
       </c>
@@ -2724,7 +2733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>38</v>
       </c>
@@ -2747,7 +2756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>39</v>
       </c>
@@ -2770,7 +2779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>40</v>
       </c>
@@ -2793,7 +2802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>41</v>
       </c>
@@ -2816,7 +2825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>42</v>
       </c>
@@ -2827,7 +2836,7 @@
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>43</v>
       </c>
@@ -2850,7 +2859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>44</v>
       </c>
@@ -2861,7 +2870,7 @@
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>45</v>
       </c>
@@ -2884,7 +2893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>46</v>
       </c>
@@ -2907,7 +2916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>47</v>
       </c>
@@ -2930,7 +2939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>48</v>
       </c>
@@ -2953,7 +2962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>49</v>
       </c>
@@ -2976,7 +2985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>50</v>
       </c>
@@ -2987,7 +2996,7 @@
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>51</v>
       </c>
@@ -3010,7 +3019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>52</v>
       </c>
@@ -3033,7 +3042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>53</v>
       </c>
@@ -3056,7 +3065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>54</v>
       </c>
@@ -3079,7 +3088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>55</v>
       </c>
@@ -3102,7 +3111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>56</v>
       </c>
@@ -3125,7 +3134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>57</v>
       </c>
@@ -3148,7 +3157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>0</v>
       </c>
@@ -3177,7 +3186,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>14</v>
       </c>
@@ -3188,7 +3197,7 @@
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>1</v>
       </c>
@@ -3211,7 +3220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>11</v>
       </c>
@@ -3234,7 +3243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>34</v>
       </c>
@@ -3257,7 +3266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>15</v>
       </c>
@@ -3268,7 +3277,7 @@
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>13</v>
       </c>
@@ -3291,7 +3300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>16</v>
       </c>
@@ -3314,7 +3323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>17</v>
       </c>
@@ -3340,7 +3349,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>18</v>
       </c>
@@ -3378,7 +3387,7 @@
         <v>0.55700000000000005</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>19</v>
       </c>
@@ -3404,7 +3413,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>20</v>
       </c>
@@ -3442,7 +3451,7 @@
         <v>0.59299999999999997</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>21</v>
       </c>
@@ -3480,7 +3489,7 @@
         <v>0.56499999999999995</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>22</v>
       </c>
@@ -3524,7 +3533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>23</v>
       </c>
@@ -3556,7 +3565,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>24</v>
       </c>
@@ -3600,7 +3609,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>25</v>
       </c>
@@ -3644,7 +3653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>26</v>
       </c>
@@ -3667,7 +3676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>27</v>
       </c>
@@ -3690,7 +3699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>28</v>
       </c>
@@ -3713,7 +3722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>29</v>
       </c>
@@ -3736,7 +3745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>30</v>
       </c>
@@ -3759,7 +3768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>31</v>
       </c>
@@ -3782,7 +3791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>32</v>
       </c>
@@ -3805,7 +3814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>33</v>
       </c>
@@ -3828,7 +3837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>35</v>
       </c>
@@ -3851,7 +3860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>36</v>
       </c>
@@ -3874,7 +3883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>37</v>
       </c>
@@ -3897,7 +3906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>38</v>
       </c>
@@ -3920,7 +3929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>39</v>
       </c>
@@ -3943,7 +3952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>40</v>
       </c>
@@ -3966,7 +3975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>41</v>
       </c>
@@ -3989,7 +3998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>42</v>
       </c>
@@ -4000,7 +4009,7 @@
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>43</v>
       </c>
@@ -4023,7 +4032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>44</v>
       </c>
@@ -4034,7 +4043,7 @@
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>45</v>
       </c>
@@ -4057,7 +4066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>46</v>
       </c>
@@ -4080,7 +4089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>47</v>
       </c>
@@ -4103,7 +4112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>48</v>
       </c>
@@ -4126,7 +4135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>49</v>
       </c>
@@ -4149,7 +4158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>50</v>
       </c>
@@ -4160,7 +4169,7 @@
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>51</v>
       </c>
@@ -4183,7 +4192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>52</v>
       </c>
@@ -4206,7 +4215,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>53</v>
       </c>
@@ -4229,7 +4238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>54</v>
       </c>
@@ -4252,7 +4261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>55</v>
       </c>
@@ -4275,7 +4284,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>56</v>
       </c>
@@ -4298,7 +4307,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>57</v>
       </c>
@@ -4321,12 +4330,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>20</v>
       </c>
@@ -4349,7 +4358,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>21</v>
       </c>
@@ -4372,7 +4381,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>26</v>
       </c>
@@ -4395,7 +4404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
         <v>36</v>
       </c>
@@ -4418,7 +4427,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
         <v>38</v>
       </c>
@@ -4441,7 +4450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
         <v>55</v>
       </c>
@@ -4464,7 +4473,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>56</v>
       </c>
@@ -4487,7 +4496,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -4496,7 +4505,7 @@
       <c r="F175" s="2"/>
       <c r="G175" s="2"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>20</v>
       </c>
@@ -4519,7 +4528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
         <v>26</v>
       </c>
@@ -4542,7 +4551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>36</v>
       </c>
@@ -4565,7 +4574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>37</v>
       </c>
@@ -4588,7 +4597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
         <v>38</v>
       </c>
@@ -4611,7 +4620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>55</v>
       </c>
@@ -4634,7 +4643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>56</v>
       </c>
@@ -4657,7 +4666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
         <v>57</v>
       </c>
@@ -4680,7 +4689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -4689,7 +4698,7 @@
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>21</v>
       </c>
@@ -4712,7 +4721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="s">
         <v>26</v>
       </c>
@@ -4735,7 +4744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
         <v>36</v>
       </c>
@@ -4758,7 +4767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>37</v>
       </c>
@@ -4781,7 +4790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
         <v>55</v>
       </c>
@@ -4804,7 +4813,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="s">
         <v>56</v>
       </c>
@@ -4827,7 +4836,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>57</v>
       </c>
@@ -4850,17 +4859,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>55</v>
       </c>
@@ -4883,7 +4892,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>38</v>
       </c>
@@ -4906,7 +4915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>36</v>
       </c>
@@ -4929,12 +4938,12 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>55</v>
       </c>
@@ -4951,7 +4960,7 @@
         <v>0.70099999999999996</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>38</v>
       </c>
@@ -4968,7 +4977,7 @@
         <v>0.63200000000000001</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>36</v>
       </c>
@@ -4991,12 +5000,12 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>55</v>
       </c>
@@ -5013,7 +5022,7 @@
         <v>0.70799999999999996</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>38</v>
       </c>
@@ -5030,7 +5039,7 @@
         <v>0.63200000000000001</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>36</v>
       </c>
@@ -5047,144 +5056,546 @@
         <v>0.64100000000000001</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B211">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="C211">
+        <v>0.75</v>
+      </c>
+      <c r="D211">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="E211">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="F211">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="G211">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B212">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="C212">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="D212">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="E212">
+        <v>0.64800000000000002</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B213">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="C213">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="D213">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="E213">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="F213">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="G213">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B216">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="C216">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="D216">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="E216">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="F216">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="G216">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B217">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="C217">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="D217">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="E217">
+        <v>0.65300000000000002</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B218">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="C218">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="D218">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="E218">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="F218">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="G218">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B221">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="C221">
+        <v>0.72</v>
+      </c>
+      <c r="D221">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="E221">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="F221">
+        <v>0.05</v>
+      </c>
+      <c r="G221">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B222">
+        <v>0.621</v>
+      </c>
+      <c r="C222">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="D222">
+        <v>0.62</v>
+      </c>
+      <c r="E222">
+        <v>0.627</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B223">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="C223">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="D223">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="E223">
+        <v>0.628</v>
+      </c>
+      <c r="F223">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G223">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B226">
+        <v>0.69</v>
+      </c>
+      <c r="C226">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="D226">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="E226">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="F226">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="G226">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B227">
+        <v>0.622</v>
+      </c>
+      <c r="C227">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="D227">
+        <v>0.623</v>
+      </c>
+      <c r="E227">
+        <v>0.628</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B228">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="C228">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="D228">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="E228">
+        <v>0.627</v>
+      </c>
+      <c r="F228">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="G228">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B232">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="C232">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="D232">
+        <v>0.66</v>
+      </c>
+      <c r="E232">
+        <v>0.66100000000000003</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>55</v>
+      </c>
+      <c r="B250">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="C250">
+        <v>0.747</v>
+      </c>
+      <c r="D250">
+        <v>0.73</v>
+      </c>
+      <c r="E250">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="F250">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="G250">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>38</v>
+      </c>
+      <c r="B251">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="C251">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="D251">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="E251">
+        <v>0.65400000000000003</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>36</v>
+      </c>
+      <c r="B252">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="C252">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="D252">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="E252">
+        <v>0.67600000000000005</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>55</v>
+      </c>
+      <c r="B255">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="C255">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="D255">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="E255">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="F255">
+        <v>0.13</v>
+      </c>
+      <c r="G255">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>38</v>
+      </c>
+      <c r="B256">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="C256">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="D256">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="E256">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="F256">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="G256">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>36</v>
+      </c>
+      <c r="B257">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="C257">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="D257">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="E257">
+        <v>0.66200000000000003</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>55</v>
+      </c>
+      <c r="B260">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="C260">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="D260">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="E260">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="F260">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="G260">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>38</v>
+      </c>
+      <c r="B261">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="C261">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="D261">
+        <v>0.621</v>
+      </c>
+      <c r="E261">
+        <v>0.61699999999999999</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>36</v>
+      </c>
+      <c r="B262">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="C262">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="D262">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="E262">
+        <v>0.621</v>
+      </c>
+      <c r="F262">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="G262">
+        <v>1.0999999999999999E-2</v>
       </c>
     </row>
   </sheetData>

--- a/dane.xlsx
+++ b/dane.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="87">
   <si>
     <t>algorytm</t>
   </si>
@@ -260,12 +260,27 @@
   </si>
   <si>
     <t>a bez upperbb</t>
+  </si>
+  <si>
+    <t>z sygnalem BB</t>
+  </si>
+  <si>
+    <t>mixed data bez middle</t>
+  </si>
+  <si>
+    <t>mixed data bez lower</t>
+  </si>
+  <si>
+    <t>mixed data bez macd</t>
+  </si>
+  <si>
+    <t>mixed data bez rsi i cci</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -359,10 +374,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Dane wejściowe" xfId="1" builtinId="20"/>
-    <cellStyle name="Dobry" xfId="2" builtinId="26"/>
-    <cellStyle name="Neutralny" xfId="3" builtinId="28"/>
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
+    <cellStyle name="Input" xfId="1" builtinId="20"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -378,9 +393,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -418,7 +433,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -490,7 +505,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -664,24 +679,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O262"/>
+  <dimension ref="A1:O291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A213" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E232" sqref="E232"/>
+    <sheetView tabSelected="1" topLeftCell="A272" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E290" sqref="E290"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" customWidth="1"/>
+    <col min="1" max="1" width="34.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" customWidth="1"/>
-    <col min="6" max="7" width="14.44140625" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -710,7 +725,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -727,7 +742,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -753,7 +768,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -776,7 +791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -799,7 +814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -822,7 +837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -833,7 +848,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -856,7 +871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -879,7 +894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -902,7 +917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -925,7 +940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
@@ -936,7 +951,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -959,7 +974,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -985,7 +1000,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1029,7 +1044,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
@@ -1061,7 +1076,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1105,7 +1120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1149,7 +1164,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -1193,7 +1208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1237,7 +1252,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -1275,7 +1290,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1298,7 +1313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -1321,7 +1336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -1344,7 +1359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -1367,7 +1382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1393,7 +1408,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -1416,7 +1431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -1439,7 +1454,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -1462,7 +1477,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -1485,7 +1500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -1508,7 +1523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -1531,7 +1546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -1554,7 +1569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>42</v>
       </c>
@@ -1565,7 +1580,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -1588,7 +1603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>44</v>
       </c>
@@ -1599,7 +1614,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -1622,7 +1637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>46</v>
       </c>
@@ -1645,7 +1660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>47</v>
       </c>
@@ -1668,7 +1683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>48</v>
       </c>
@@ -1691,7 +1706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>49</v>
       </c>
@@ -1714,7 +1729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>50</v>
       </c>
@@ -1725,7 +1740,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>51</v>
       </c>
@@ -1748,7 +1763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>52</v>
       </c>
@@ -1771,7 +1786,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>53</v>
       </c>
@@ -1794,7 +1809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>54</v>
       </c>
@@ -1817,7 +1832,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>55</v>
       </c>
@@ -1840,7 +1855,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>56</v>
       </c>
@@ -1863,7 +1878,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>57</v>
       </c>
@@ -1886,7 +1901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -1915,7 +1930,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>14</v>
       </c>
@@ -1932,7 +1947,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>1</v>
       </c>
@@ -1958,7 +1973,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>11</v>
       </c>
@@ -1981,7 +1996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>12</v>
       </c>
@@ -2004,7 +2019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>34</v>
       </c>
@@ -2027,7 +2042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>15</v>
       </c>
@@ -2038,7 +2053,7 @@
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>13</v>
       </c>
@@ -2061,7 +2076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>16</v>
       </c>
@@ -2084,7 +2099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>17</v>
       </c>
@@ -2107,7 +2122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>18</v>
       </c>
@@ -2130,7 +2145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>19</v>
       </c>
@@ -2141,7 +2156,7 @@
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>20</v>
       </c>
@@ -2164,7 +2179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>21</v>
       </c>
@@ -2187,7 +2202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>22</v>
       </c>
@@ -2213,7 +2228,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>23</v>
       </c>
@@ -2245,7 +2260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>24</v>
       </c>
@@ -2289,7 +2304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>25</v>
       </c>
@@ -2333,7 +2348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>26</v>
       </c>
@@ -2377,7 +2392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>27</v>
       </c>
@@ -2421,7 +2436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>28</v>
       </c>
@@ -2465,7 +2480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>29</v>
       </c>
@@ -2509,7 +2524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>30</v>
       </c>
@@ -2553,7 +2568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>31</v>
       </c>
@@ -2597,7 +2612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>32</v>
       </c>
@@ -2641,7 +2656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>33</v>
       </c>
@@ -2664,7 +2679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>35</v>
       </c>
@@ -2687,7 +2702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>36</v>
       </c>
@@ -2710,7 +2725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>37</v>
       </c>
@@ -2733,7 +2748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>38</v>
       </c>
@@ -2756,7 +2771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>39</v>
       </c>
@@ -2779,7 +2794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>40</v>
       </c>
@@ -2802,7 +2817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>41</v>
       </c>
@@ -2825,7 +2840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>42</v>
       </c>
@@ -2836,7 +2851,7 @@
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>43</v>
       </c>
@@ -2859,7 +2874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>44</v>
       </c>
@@ -2870,7 +2885,7 @@
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>45</v>
       </c>
@@ -2893,7 +2908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>46</v>
       </c>
@@ -2916,7 +2931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>47</v>
       </c>
@@ -2939,7 +2954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>48</v>
       </c>
@@ -2962,7 +2977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>49</v>
       </c>
@@ -2985,7 +3000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>50</v>
       </c>
@@ -2996,7 +3011,7 @@
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>51</v>
       </c>
@@ -3019,7 +3034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>52</v>
       </c>
@@ -3042,7 +3057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>53</v>
       </c>
@@ -3065,7 +3080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>54</v>
       </c>
@@ -3088,7 +3103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>55</v>
       </c>
@@ -3111,7 +3126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>56</v>
       </c>
@@ -3134,7 +3149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>57</v>
       </c>
@@ -3157,7 +3172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>0</v>
       </c>
@@ -3186,7 +3201,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>14</v>
       </c>
@@ -3197,7 +3212,7 @@
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>1</v>
       </c>
@@ -3220,7 +3235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>11</v>
       </c>
@@ -3243,7 +3258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>34</v>
       </c>
@@ -3266,7 +3281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>15</v>
       </c>
@@ -3277,7 +3292,7 @@
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>13</v>
       </c>
@@ -3300,7 +3315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>16</v>
       </c>
@@ -3323,7 +3338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>17</v>
       </c>
@@ -3349,7 +3364,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>18</v>
       </c>
@@ -3387,7 +3402,7 @@
         <v>0.55700000000000005</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>19</v>
       </c>
@@ -3413,7 +3428,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>20</v>
       </c>
@@ -3451,7 +3466,7 @@
         <v>0.59299999999999997</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>21</v>
       </c>
@@ -3489,7 +3504,7 @@
         <v>0.56499999999999995</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>22</v>
       </c>
@@ -3533,7 +3548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>23</v>
       </c>
@@ -3565,7 +3580,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>24</v>
       </c>
@@ -3609,7 +3624,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>25</v>
       </c>
@@ -3653,7 +3668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>26</v>
       </c>
@@ -3676,7 +3691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>27</v>
       </c>
@@ -3699,7 +3714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>28</v>
       </c>
@@ -3722,7 +3737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>29</v>
       </c>
@@ -3745,7 +3760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>30</v>
       </c>
@@ -3768,7 +3783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>31</v>
       </c>
@@ -3791,7 +3806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>32</v>
       </c>
@@ -3814,7 +3829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>33</v>
       </c>
@@ -3837,7 +3852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>35</v>
       </c>
@@ -3860,7 +3875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>36</v>
       </c>
@@ -3883,7 +3898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>37</v>
       </c>
@@ -3906,7 +3921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>38</v>
       </c>
@@ -3929,7 +3944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>39</v>
       </c>
@@ -3952,7 +3967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>40</v>
       </c>
@@ -3975,7 +3990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>41</v>
       </c>
@@ -3998,7 +4013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>42</v>
       </c>
@@ -4009,7 +4024,7 @@
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>43</v>
       </c>
@@ -4032,7 +4047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>44</v>
       </c>
@@ -4043,7 +4058,7 @@
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>45</v>
       </c>
@@ -4066,7 +4081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>46</v>
       </c>
@@ -4089,7 +4104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>47</v>
       </c>
@@ -4112,7 +4127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>48</v>
       </c>
@@ -4135,7 +4150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>49</v>
       </c>
@@ -4158,7 +4173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>50</v>
       </c>
@@ -4169,7 +4184,7 @@
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>51</v>
       </c>
@@ -4192,7 +4207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>52</v>
       </c>
@@ -4215,7 +4230,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>53</v>
       </c>
@@ -4238,7 +4253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>54</v>
       </c>
@@ -4261,7 +4276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>55</v>
       </c>
@@ -4284,7 +4299,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>56</v>
       </c>
@@ -4307,7 +4322,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>57</v>
       </c>
@@ -4330,12 +4345,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>20</v>
       </c>
@@ -4358,7 +4373,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>21</v>
       </c>
@@ -4381,7 +4396,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>26</v>
       </c>
@@ -4404,7 +4419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>36</v>
       </c>
@@ -4427,7 +4442,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>38</v>
       </c>
@@ -4450,7 +4465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>55</v>
       </c>
@@ -4473,7 +4488,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>56</v>
       </c>
@@ -4496,7 +4511,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -4505,7 +4520,7 @@
       <c r="F175" s="2"/>
       <c r="G175" s="2"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>20</v>
       </c>
@@ -4528,7 +4543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>26</v>
       </c>
@@ -4551,7 +4566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>36</v>
       </c>
@@ -4574,7 +4589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>37</v>
       </c>
@@ -4597,7 +4612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>38</v>
       </c>
@@ -4620,7 +4635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>55</v>
       </c>
@@ -4643,7 +4658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>56</v>
       </c>
@@ -4666,7 +4681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>57</v>
       </c>
@@ -4689,7 +4704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -4698,7 +4713,7 @@
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>21</v>
       </c>
@@ -4721,7 +4736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>26</v>
       </c>
@@ -4744,7 +4759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>36</v>
       </c>
@@ -4767,7 +4782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>37</v>
       </c>
@@ -4790,7 +4805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>55</v>
       </c>
@@ -4813,7 +4828,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>56</v>
       </c>
@@ -4836,7 +4851,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>57</v>
       </c>
@@ -4859,17 +4874,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>55</v>
       </c>
@@ -4892,7 +4907,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>38</v>
       </c>
@@ -4915,7 +4930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>36</v>
       </c>
@@ -4938,12 +4953,12 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>55</v>
       </c>
@@ -4960,7 +4975,7 @@
         <v>0.70099999999999996</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>38</v>
       </c>
@@ -4977,7 +4992,7 @@
         <v>0.63200000000000001</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>36</v>
       </c>
@@ -5000,12 +5015,12 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>55</v>
       </c>
@@ -5022,7 +5037,7 @@
         <v>0.70799999999999996</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>38</v>
       </c>
@@ -5039,7 +5054,7 @@
         <v>0.63200000000000001</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>36</v>
       </c>
@@ -5055,13 +5070,19 @@
       <c r="E208">
         <v>0.64100000000000001</v>
       </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F208">
+        <v>2.7E-2</v>
+      </c>
+      <c r="G208">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>55</v>
       </c>
@@ -5084,7 +5105,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>38</v>
       </c>
@@ -5101,7 +5122,7 @@
         <v>0.64800000000000002</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>36</v>
       </c>
@@ -5124,12 +5145,12 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>55</v>
       </c>
@@ -5152,7 +5173,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>38</v>
       </c>
@@ -5169,7 +5190,7 @@
         <v>0.65300000000000002</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>36</v>
       </c>
@@ -5192,12 +5213,12 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>55</v>
       </c>
@@ -5220,7 +5241,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>38</v>
       </c>
@@ -5237,7 +5258,7 @@
         <v>0.627</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>36</v>
       </c>
@@ -5260,12 +5281,12 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>55</v>
       </c>
@@ -5288,7 +5309,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>38</v>
       </c>
@@ -5305,7 +5326,7 @@
         <v>0.628</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>36</v>
       </c>
@@ -5328,12 +5349,12 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>55</v>
       </c>
@@ -5350,252 +5371,712 @@
         <v>0.66100000000000003</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B233">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="C233">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="D233">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="E233">
+        <v>0.61699999999999999</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B234">
+        <v>0.628</v>
+      </c>
+      <c r="C234">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="D234">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="E234">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="F234">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G234">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B238">
+        <v>0.71</v>
+      </c>
+      <c r="C238">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="D238">
+        <v>0.72</v>
+      </c>
+      <c r="E238">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="F238">
+        <v>6.3E-2</v>
+      </c>
+      <c r="G238">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B239">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="C239">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="D239">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="E239">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B240">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="C240">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="D240">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="E240">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="F240">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G240">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B244">
+        <v>0.71</v>
+      </c>
+      <c r="C244">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="D244">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="E244">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="F244">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="G244">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B245">
+        <v>0.63</v>
+      </c>
+      <c r="C245">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="D245">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="E245">
+        <v>0.63600000000000001</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B246">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="C246">
+        <v>0.755</v>
+      </c>
+      <c r="D246">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="E246">
+        <v>0.65</v>
+      </c>
+      <c r="F246">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="G246">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>55</v>
       </c>
       <c r="B250">
-        <v>0.72199999999999998</v>
+        <v>0.70799999999999996</v>
       </c>
       <c r="C250">
-        <v>0.747</v>
+        <v>0.73399999999999999</v>
       </c>
       <c r="D250">
-        <v>0.73</v>
+        <v>0.71599999999999997</v>
       </c>
       <c r="E250">
-        <v>0.72799999999999998</v>
-      </c>
-      <c r="F250">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="G250">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.71399999999999997</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>38</v>
       </c>
       <c r="B251">
-        <v>0.64800000000000002</v>
+        <v>0.63500000000000001</v>
       </c>
       <c r="C251">
-        <v>0.66800000000000004</v>
+        <v>0.65300000000000002</v>
       </c>
       <c r="D251">
-        <v>0.65100000000000002</v>
+        <v>0.63700000000000001</v>
       </c>
       <c r="E251">
-        <v>0.65400000000000003</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.64200000000000002</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>36</v>
       </c>
       <c r="B252">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="C252">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="D252">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="E252">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="F252">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="G252">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>55</v>
+      </c>
+      <c r="B257">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="C257">
+        <v>0.747</v>
+      </c>
+      <c r="D257">
+        <v>0.73</v>
+      </c>
+      <c r="E257">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="F257">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="G257">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>38</v>
+      </c>
+      <c r="B258">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="C258">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="D258">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="E258">
+        <v>0.65400000000000003</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>36</v>
+      </c>
+      <c r="B259">
         <v>0.69299999999999995</v>
       </c>
-      <c r="C252">
+      <c r="C259">
         <v>0.76200000000000001</v>
       </c>
-      <c r="D252">
+      <c r="D259">
         <v>0.73099999999999998</v>
       </c>
-      <c r="E252">
+      <c r="E259">
         <v>0.67600000000000005</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A254" t="s">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A255" t="s">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
         <v>55</v>
       </c>
-      <c r="B255">
+      <c r="B263">
         <v>0.73099999999999998</v>
       </c>
-      <c r="C255">
+      <c r="C263">
         <v>0.75600000000000001</v>
       </c>
-      <c r="D255">
+      <c r="D263">
         <v>0.73899999999999999</v>
       </c>
-      <c r="E255">
+      <c r="E263">
         <v>0.73899999999999999</v>
       </c>
-      <c r="F255">
+      <c r="F263">
         <v>0.13</v>
       </c>
-      <c r="G255">
+      <c r="G263">
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A256" t="s">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
         <v>38</v>
       </c>
-      <c r="B256">
+      <c r="B264">
         <v>0.70199999999999996</v>
       </c>
-      <c r="C256">
+      <c r="C264">
         <v>0.77200000000000002</v>
       </c>
-      <c r="D256">
+      <c r="D264">
         <v>0.74199999999999999</v>
       </c>
-      <c r="E256">
+      <c r="E264">
         <v>0.68500000000000005</v>
       </c>
-      <c r="F256">
+      <c r="F264">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="G256">
+      <c r="G264">
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A257" t="s">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
         <v>36</v>
       </c>
-      <c r="B257">
+      <c r="B265">
         <v>0.65300000000000002</v>
       </c>
-      <c r="C257">
+      <c r="C265">
         <v>0.66800000000000004</v>
       </c>
-      <c r="D257">
+      <c r="D265">
         <v>0.65400000000000003</v>
       </c>
-      <c r="E257">
+      <c r="E265">
         <v>0.66200000000000003</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A259" t="s">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A260" t="s">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
         <v>55</v>
       </c>
-      <c r="B260">
+      <c r="B268">
         <v>0.66200000000000003</v>
       </c>
-      <c r="C260">
+      <c r="C268">
         <v>0.71599999999999997</v>
       </c>
-      <c r="D260">
+      <c r="D268">
         <v>0.69699999999999995</v>
       </c>
-      <c r="E260">
+      <c r="E268">
         <v>0.69299999999999995</v>
       </c>
-      <c r="F260">
+      <c r="F268">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="G260">
+      <c r="G268">
         <v>2E-3</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A261" t="s">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
         <v>38</v>
       </c>
-      <c r="B261">
+      <c r="B269">
         <v>0.61599999999999999</v>
       </c>
-      <c r="C261">
+      <c r="C269">
         <v>0.64200000000000002</v>
       </c>
-      <c r="D261">
+      <c r="D269">
         <v>0.621</v>
       </c>
-      <c r="E261">
+      <c r="E269">
         <v>0.61699999999999999</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A262" t="s">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
         <v>36</v>
       </c>
-      <c r="B262">
+      <c r="B270">
         <v>0.65200000000000002</v>
       </c>
-      <c r="C262">
+      <c r="C270">
         <v>0.73899999999999999</v>
       </c>
-      <c r="D262">
+      <c r="D270">
         <v>0.69499999999999995</v>
       </c>
-      <c r="E262">
+      <c r="E270">
         <v>0.621</v>
       </c>
-      <c r="F262">
+      <c r="F270">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="G262">
+      <c r="G270">
         <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>55</v>
+      </c>
+      <c r="B273">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="C273">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="D273">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="E273">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="F273">
+        <v>0.05</v>
+      </c>
+      <c r="G273">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>38</v>
+      </c>
+      <c r="B274">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="C274">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="D274">
+        <v>0.621</v>
+      </c>
+      <c r="E274">
+        <v>0.626</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>36</v>
+      </c>
+      <c r="B275">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="C275">
+        <v>0.74</v>
+      </c>
+      <c r="D275">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="E275">
+        <v>0.624</v>
+      </c>
+      <c r="F275">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="G275">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>55</v>
+      </c>
+      <c r="B278">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="C278">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="D278">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="E278">
+        <v>0.69</v>
+      </c>
+      <c r="F278">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="G278">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>38</v>
+      </c>
+      <c r="B279">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="C279">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="D279">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="E279">
+        <v>0.623</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>36</v>
+      </c>
+      <c r="B280">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="C280">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="D280">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="E280">
+        <v>0.628</v>
+      </c>
+      <c r="F280">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G280">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>55</v>
+      </c>
+      <c r="B284">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="C284">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="D284">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="E284">
+        <v>0.66</v>
+      </c>
+      <c r="F284">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="G284">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>38</v>
+      </c>
+      <c r="B285">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="C285">
+        <v>0.629</v>
+      </c>
+      <c r="D285">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="E285">
+        <v>0.60699999999999998</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>36</v>
+      </c>
+      <c r="B286">
+        <v>0.623</v>
+      </c>
+      <c r="C286">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="D286">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="E286">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="F286">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="G286">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>55</v>
+      </c>
+      <c r="B289">
+        <v>0.749</v>
+      </c>
+      <c r="C289">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="D289">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="E289">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="F289">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="G289">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>38</v>
+      </c>
+      <c r="B290">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="C290">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="D290">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="E290">
+        <v>0.65300000000000002</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>36</v>
+      </c>
+      <c r="B291">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="C291">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="D291">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="E291">
+        <v>0.71</v>
+      </c>
+      <c r="F291">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="G291">
+        <v>0.03</v>
       </c>
     </row>
   </sheetData>
